--- a/server/data/openap/modifiedOpenap.xlsx
+++ b/server/data/openap/modifiedOpenap.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="59">
   <si>
     <t>BillNo</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>Exchange rate</t>
+    <t>Exchange Rate</t>
   </si>
   <si>
     <t>11986</t>
@@ -71,6 +71,12 @@
     <t>USD</t>
   </si>
   <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>041024-1234</t>
+  </si>
+  <si>
     <t>XPD GLOBAL</t>
   </si>
   <si>
@@ -89,6 +95,9 @@
     <t>EUR</t>
   </si>
   <si>
+    <t>1.05</t>
+  </si>
+  <si>
     <t>XFT C25A/56</t>
   </si>
   <si>
@@ -98,6 +107,9 @@
     <t>17/05/2025</t>
   </si>
   <si>
+    <t>1.14</t>
+  </si>
+  <si>
     <t>S00014832/B</t>
   </si>
   <si>
@@ -158,10 +170,19 @@
     <t>Currency Code</t>
   </si>
   <si>
+    <t>041024-1235</t>
+  </si>
+  <si>
+    <t>BillDate-1236</t>
+  </si>
+  <si>
     <t>INTERWORLD FREIGHT USA</t>
   </si>
   <si>
     <t>23/01/2025</t>
+  </si>
+  <si>
+    <t>BillDate-1237</t>
   </si>
   <si>
     <t>SHANDONG DINGXIN ELECTRONIC GLASS GROUP</t>
@@ -620,21 +641,21 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -658,21 +679,21 @@
         <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -693,24 +714,24 @@
         <v>120</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -731,24 +752,24 @@
         <v>10500</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -772,21 +793,21 @@
         <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -810,21 +831,21 @@
         <v>18</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -848,21 +869,21 @@
         <v>18</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -886,7 +907,7 @@
         <v>18</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -902,28 +923,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I1" t="s">
         <v>11</v>
@@ -931,13 +952,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -955,18 +976,18 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -984,18 +1005,18 @@
         <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -1013,7 +1034,7 @@
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/server/data/openap/modifiedOpenap.xlsx
+++ b/server/data/openap/modifiedOpenap.xlsx
@@ -173,7 +173,7 @@
     <t>041024-1235</t>
   </si>
   <si>
-    <t>BillDate-1236</t>
+    <t>nodate-1236</t>
   </si>
   <si>
     <t>INTERWORLD FREIGHT USA</t>
@@ -182,7 +182,7 @@
     <t>23/01/2025</t>
   </si>
   <si>
-    <t>BillDate-1237</t>
+    <t>nodate-1237</t>
   </si>
   <si>
     <t>SHANDONG DINGXIN ELECTRONIC GLASS GROUP</t>
@@ -711,7 +711,7 @@
         <v>16</v>
       </c>
       <c r="J4">
-        <v>120</v>
+        <v>126.13</v>
       </c>
       <c r="K4" t="s">
         <v>26</v>
@@ -749,7 +749,7 @@
         <v>16</v>
       </c>
       <c r="J5">
-        <v>10500</v>
+        <v>11940.98</v>
       </c>
       <c r="K5" t="s">
         <v>26</v>
